--- a/master2/output/heads_compare.xlsx
+++ b/master2/output/heads_compare.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie_000\Documents\GitHub\tal\master2\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91ABAC1-2A87-4E0B-A69A-0E5DAF7EB029}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92D820B-3EF3-42D2-B472-C4DC25256829}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-11835" yWindow="-450" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9690" yWindow="105" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Best TRANS for each" sheetId="1" r:id="rId1"/>
-    <sheet name="Compare c1n, c2nA, c2nB" sheetId="2" r:id="rId2"/>
-    <sheet name="all" sheetId="4" r:id="rId3"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
+    <sheet name="New Compare Corpus Trans" sheetId="5" r:id="rId1"/>
+    <sheet name="New Trans vs Disc" sheetId="6" r:id="rId2"/>
+    <sheet name="Best TRANS for each" sheetId="1" r:id="rId3"/>
+    <sheet name="Compare c1n, c2nA, c2nB" sheetId="2" r:id="rId4"/>
+    <sheet name="all" sheetId="4" r:id="rId5"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId6"/>
+    <sheet name="Feuil4" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="413">
   <si>
     <t>c1n</t>
   </si>
@@ -439,18 +442,859 @@
   </si>
   <si>
     <t>all</t>
+  </si>
+  <si>
+    <t>19 en plus</t>
+  </si>
+  <si>
+    <t>5 en plus</t>
+  </si>
+  <si>
+    <t>6 en plus</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>voie</t>
+  </si>
+  <si>
+    <t>valeur</t>
+  </si>
+  <si>
+    <t>transformation</t>
+  </si>
+  <si>
+    <t>temps</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>réalité</t>
+  </si>
+  <si>
+    <t>rapport</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>problématique</t>
+  </si>
+  <si>
+    <t>piste</t>
+  </si>
+  <si>
+    <t>parcours</t>
+  </si>
+  <si>
+    <t>paradoxe</t>
+  </si>
+  <si>
+    <t>perception</t>
+  </si>
+  <si>
+    <t>organisation</t>
+  </si>
+  <si>
+    <t>objet</t>
+  </si>
+  <si>
+    <t>notion</t>
+  </si>
+  <si>
+    <t>mythe</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>méthodologie</t>
+  </si>
+  <si>
+    <t>limite</t>
+  </si>
+  <si>
+    <t>leçon</t>
+  </si>
+  <si>
+    <t>jeu</t>
+  </si>
+  <si>
+    <t>interaction</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>illustration</t>
+  </si>
+  <si>
+    <t>identité</t>
+  </si>
+  <si>
+    <t>fonction</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>émergence</t>
+  </si>
+  <si>
+    <t>dispositif</t>
+  </si>
+  <si>
+    <t>discours</t>
+  </si>
+  <si>
+    <t>dimension</t>
+  </si>
+  <si>
+    <t>démarche</t>
+  </si>
+  <si>
+    <t>définition</t>
+  </si>
+  <si>
+    <t>contrôle</t>
+  </si>
+  <si>
+    <t>contexte</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>changement</t>
+  </si>
+  <si>
+    <t>cadre</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>Corpus</t>
+  </si>
+  <si>
+    <t>?GRP</t>
+  </si>
+  <si>
+    <t>accompagnement</t>
+  </si>
+  <si>
+    <t>acquisition</t>
+  </si>
+  <si>
+    <t>acteur</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>activation</t>
+  </si>
+  <si>
+    <t>actualité</t>
+  </si>
+  <si>
+    <t>adaptation</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>algèbre</t>
+  </si>
+  <si>
+    <t>algorithme</t>
+  </si>
+  <si>
+    <t>amélioration</t>
+  </si>
+  <si>
+    <t>aménagement</t>
+  </si>
+  <si>
+    <t>antenne</t>
+  </si>
+  <si>
+    <t>anthropologie</t>
+  </si>
+  <si>
+    <t>appropriation</t>
+  </si>
+  <si>
+    <t>approximation</t>
+  </si>
+  <si>
+    <t>archéologie</t>
+  </si>
+  <si>
+    <t>artiste</t>
+  </si>
+  <si>
+    <t>assimilation</t>
+  </si>
+  <si>
+    <t>assurance</t>
+  </si>
+  <si>
+    <t>atelier</t>
+  </si>
+  <si>
+    <t>autisme</t>
+  </si>
+  <si>
+    <t>aversion</t>
+  </si>
+  <si>
+    <t>bassin</t>
+  </si>
+  <si>
+    <t>bibliographie</t>
+  </si>
+  <si>
+    <t>bibliothèque</t>
+  </si>
+  <si>
+    <t>borne</t>
+  </si>
+  <si>
+    <t>brève</t>
+  </si>
+  <si>
+    <t>calcul</t>
+  </si>
+  <si>
+    <t>campagne</t>
+  </si>
+  <si>
+    <t>cartographie</t>
+  </si>
+  <si>
+    <t>catégorisation</t>
+  </si>
+  <si>
+    <t>château</t>
+  </si>
+  <si>
+    <t>chronique</t>
+  </si>
+  <si>
+    <t>cinéma</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>clause</t>
+  </si>
+  <si>
+    <t>clinique</t>
+  </si>
+  <si>
+    <t>cohomologie</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>commande</t>
+  </si>
+  <si>
+    <t>commentaire</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t>compétence</t>
+  </si>
+  <si>
+    <t>complexification</t>
+  </si>
+  <si>
+    <t>comportement</t>
+  </si>
+  <si>
+    <t>composition</t>
+  </si>
+  <si>
+    <t>contrat</t>
+  </si>
+  <si>
+    <t>corps</t>
+  </si>
+  <si>
+    <t>corpus</t>
+  </si>
+  <si>
+    <t>couplage</t>
+  </si>
+  <si>
+    <t>cour</t>
+  </si>
+  <si>
+    <t>crise</t>
+  </si>
+  <si>
+    <t>critique</t>
+  </si>
+  <si>
+    <t>croyance</t>
+  </si>
+  <si>
+    <t>datation</t>
+  </si>
+  <si>
+    <t>décor</t>
+  </si>
+  <si>
+    <t>découverte</t>
+  </si>
+  <si>
+    <t>démocratie</t>
+  </si>
+  <si>
+    <t>dépôt</t>
+  </si>
+  <si>
+    <t>détection</t>
+  </si>
+  <si>
+    <t>détermination</t>
+  </si>
+  <si>
+    <t>dictionnaire</t>
+  </si>
+  <si>
+    <t>didactique</t>
+  </si>
+  <si>
+    <t>différence</t>
+  </si>
+  <si>
+    <t>diffusion</t>
+  </si>
+  <si>
+    <t>dosage</t>
+  </si>
+  <si>
+    <t>école</t>
+  </si>
+  <si>
+    <t>écologie</t>
+  </si>
+  <si>
+    <t>écriture</t>
+  </si>
+  <si>
+    <t>éducation</t>
+  </si>
+  <si>
+    <t>église</t>
+  </si>
+  <si>
+    <t>élaboration</t>
+  </si>
+  <si>
+    <t>élection</t>
+  </si>
+  <si>
+    <t>enfant</t>
+  </si>
+  <si>
+    <t>enregistrement</t>
+  </si>
+  <si>
+    <t>enseignant</t>
+  </si>
+  <si>
+    <t>ensemble</t>
+  </si>
+  <si>
+    <t>entreprise</t>
+  </si>
+  <si>
+    <t>environnement</t>
+  </si>
+  <si>
+    <t>épistémologie</t>
+  </si>
+  <si>
+    <t>établissement</t>
+  </si>
+  <si>
+    <t>État</t>
+  </si>
+  <si>
+    <t>éthique</t>
+  </si>
+  <si>
+    <t>ethnographie</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>existence</t>
+  </si>
+  <si>
+    <t>exploitation</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>extraction</t>
+  </si>
+  <si>
+    <t>facteur</t>
+  </si>
+  <si>
+    <t>faune</t>
+  </si>
+  <si>
+    <t>femme</t>
+  </si>
+  <si>
+    <t>fiction</t>
+  </si>
+  <si>
+    <t>fonctionnement</t>
+  </si>
+  <si>
+    <t>fortification</t>
+  </si>
+  <si>
+    <t>fouille</t>
+  </si>
+  <si>
+    <t>français</t>
+  </si>
+  <si>
+    <t>généralisation</t>
+  </si>
+  <si>
+    <t>génération</t>
+  </si>
+  <si>
+    <t>géographie</t>
+  </si>
+  <si>
+    <t>géologie</t>
+  </si>
+  <si>
+    <t>géométrie</t>
+  </si>
+  <si>
+    <t>gisement</t>
+  </si>
+  <si>
+    <t>gouvernance</t>
+  </si>
+  <si>
+    <t>grammaire</t>
+  </si>
+  <si>
+    <t>habitat</t>
+  </si>
+  <si>
+    <t>hydrogénation</t>
+  </si>
+  <si>
+    <t>idée</t>
+  </si>
+  <si>
+    <t>identification</t>
+  </si>
+  <si>
+    <t>imaginaire</t>
+  </si>
+  <si>
+    <t>implication</t>
+  </si>
+  <si>
+    <t>indicateur</t>
+  </si>
+  <si>
+    <t>industrie</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>informatique</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>inscription</t>
+  </si>
+  <si>
+    <t>intelligence</t>
+  </si>
+  <si>
+    <t>intervention</t>
+  </si>
+  <si>
+    <t>juge</t>
+  </si>
+  <si>
+    <t>justice</t>
+  </si>
+  <si>
+    <t>langue</t>
+  </si>
+  <si>
+    <t>légende</t>
+  </si>
+  <si>
+    <t>lettre</t>
+  </si>
+  <si>
+    <t>liberté</t>
+  </si>
+  <si>
+    <t>ligand</t>
+  </si>
+  <si>
+    <t>littérature</t>
+  </si>
+  <si>
+    <t>livre</t>
+  </si>
+  <si>
+    <t>logique</t>
+  </si>
+  <si>
+    <t>maison</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>marché</t>
+  </si>
+  <si>
+    <t>média</t>
+  </si>
+  <si>
+    <t>médiation</t>
+  </si>
+  <si>
+    <t>membrane</t>
+  </si>
+  <si>
+    <t>mémoire</t>
+  </si>
+  <si>
+    <t>migration</t>
+  </si>
+  <si>
+    <t>mobilisation</t>
+  </si>
+  <si>
+    <t>mobilité</t>
+  </si>
+  <si>
+    <t>monnaie</t>
+  </si>
+  <si>
+    <t>mot</t>
+  </si>
+  <si>
+    <t>musique</t>
+  </si>
+  <si>
+    <t>mutation</t>
+  </si>
+  <si>
+    <t>nanoparticule</t>
+  </si>
+  <si>
+    <t>nécropole</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>norme</t>
+  </si>
+  <si>
+    <t>notice</t>
+  </si>
+  <si>
+    <t>obligation</t>
+  </si>
+  <si>
+    <t>observation</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>oeuvre</t>
+  </si>
+  <si>
+    <t>optimisation</t>
+  </si>
+  <si>
+    <t>ordonnancement</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>parti</t>
+  </si>
+  <si>
+    <t>patrimoine</t>
+  </si>
+  <si>
+    <t>paysage</t>
+  </si>
+  <si>
+    <t>pédagogie</t>
+  </si>
+  <si>
+    <t>peinture</t>
+  </si>
+  <si>
+    <t>philosophie</t>
+  </si>
+  <si>
+    <t>planification</t>
+  </si>
+  <si>
+    <t>plateforme</t>
+  </si>
+  <si>
+    <t>poésie</t>
+  </si>
+  <si>
+    <t>poétique</t>
+  </si>
+  <si>
+    <t>polymère</t>
+  </si>
+  <si>
+    <t>portrait</t>
+  </si>
+  <si>
+    <t>préparation</t>
+  </si>
+  <si>
+    <t>preuve</t>
+  </si>
+  <si>
+    <t>procédure</t>
+  </si>
+  <si>
+    <t>propriété</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>psychanalyse</t>
+  </si>
+  <si>
+    <t>psychologie</t>
+  </si>
+  <si>
+    <t>qualité</t>
+  </si>
+  <si>
+    <t>quantification</t>
+  </si>
+  <si>
+    <t>quartier</t>
+  </si>
+  <si>
+    <t>réaction</t>
+  </si>
+  <si>
+    <t>réactivité</t>
+  </si>
+  <si>
+    <t>réalisation</t>
+  </si>
+  <si>
+    <t>réception</t>
+  </si>
+  <si>
+    <t>récit</t>
+  </si>
+  <si>
+    <t>reconnaissance</t>
+  </si>
+  <si>
+    <t>reconstruction</t>
+  </si>
+  <si>
+    <t>réduction</t>
+  </si>
+  <si>
+    <t>réforme</t>
+  </si>
+  <si>
+    <t>régime</t>
+  </si>
+  <si>
+    <t>régression</t>
+  </si>
+  <si>
+    <t>régulation</t>
+  </si>
+  <si>
+    <t>résolution</t>
+  </si>
+  <si>
+    <t>responsabilité</t>
+  </si>
+  <si>
+    <t>risque</t>
+  </si>
+  <si>
+    <t>roman</t>
+  </si>
+  <si>
+    <t>sanctuaire</t>
+  </si>
+  <si>
+    <t>savoir</t>
+  </si>
+  <si>
+    <t>sculpture</t>
+  </si>
+  <si>
+    <t>segmentation</t>
+  </si>
+  <si>
+    <t>sélection</t>
+  </si>
+  <si>
+    <t>sémiotique</t>
+  </si>
+  <si>
+    <t>sépulture</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>situation</t>
+  </si>
+  <si>
+    <t>société</t>
+  </si>
+  <si>
+    <t>sociologie</t>
+  </si>
+  <si>
+    <t>spectre</t>
+  </si>
+  <si>
+    <t>spectroscopie</t>
+  </si>
+  <si>
+    <t>statistique</t>
+  </si>
+  <si>
+    <t>statut</t>
+  </si>
+  <si>
+    <t>tarification</t>
+  </si>
+  <si>
+    <t>territoire</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>théâtre</t>
+  </si>
+  <si>
+    <t>traduction</t>
+  </si>
+  <si>
+    <t>transmission</t>
+  </si>
+  <si>
+    <t>trouble</t>
+  </si>
+  <si>
+    <t>union</t>
+  </si>
+  <si>
+    <t>valorisation</t>
+  </si>
+  <si>
+    <t>variabilité</t>
+  </si>
+  <si>
+    <t>verbe</t>
+  </si>
+  <si>
+    <t>vie</t>
+  </si>
+  <si>
+    <t>visualisation</t>
+  </si>
+  <si>
+    <t>voix</t>
+  </si>
+  <si>
+    <t>voyage</t>
+  </si>
+  <si>
+    <t>communs</t>
+  </si>
+  <si>
+    <t>Tutin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -626,108 +1470,116 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,6 +1920,5533 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3292D10D-54FC-45AA-B3B1-4B4A0A393270}">
+  <dimension ref="A1:G126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="13.375" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="F47" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="F53" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="F55" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="F59" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B62" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="F62" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D63" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F63" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="F64" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D65" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="E65" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="F65" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="F68" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D69" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="E69" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="F69" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D72" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="E72" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="F72" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="E74" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="F74" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="E75" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="F75" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="E76" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="F76" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E77" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F77" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="E78" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="F78" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D79" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="E80" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="F80" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D82" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="E82" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="F82" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="E84" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="F84" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D87" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E87" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F87" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D88" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="E88" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="F88" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D89" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="E89" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="F89" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="E90" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="F90" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="E91" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F91" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C92" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="E92" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="F92" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D93" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="E93" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="F93" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D94" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E94" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="F94" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F95" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D96" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="E96" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="F96" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D97" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="E97" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="F97" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D100" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E100" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F100" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F101" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D102" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="E102" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="F102" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E104" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="F104" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D105" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="E105" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="F105" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B106" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D106" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E106" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="F106" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D107" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E107" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="F107" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="E109" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="F109" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D110" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="E110" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="F110" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B111" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F111" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B112" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D112" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E112" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="F112" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D113" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E113" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F113" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E114" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="E115" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="F115" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B116" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D116" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E116" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F116" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B117" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E117" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F117" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="E118" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="F118" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B119" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C119" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E119" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F119" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B120" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C120" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D120" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E120" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F120" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="E122" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="F122" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="E123" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="F123" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D124" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="E124" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="F124" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="53">
+        <f>COUNTA(A2:A123)</f>
+        <v>94</v>
+      </c>
+      <c r="B125" s="53">
+        <f>COUNTA(B2:B123)</f>
+        <v>81</v>
+      </c>
+      <c r="C125" s="53">
+        <f>COUNTA(C2:C123)</f>
+        <v>63</v>
+      </c>
+      <c r="D125" s="53">
+        <f>COUNTA(D2:D124)</f>
+        <v>99</v>
+      </c>
+      <c r="E125" s="53">
+        <f>COUNTA(E2:E124)</f>
+        <v>123</v>
+      </c>
+      <c r="F125" s="54">
+        <f>SUM(F2:F124)</f>
+        <v>86</v>
+      </c>
+      <c r="G125" s="58">
+        <f>F125/E125</f>
+        <v>0.69918699186991873</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C126" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="D126" s="53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AB4A7B-5301-4E48-9A7E-EF1BF9F68963}">
+  <dimension ref="A1:G357"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.875" style="54" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="55">
+        <v>1.060686415637548E-3</v>
+      </c>
+      <c r="D7" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="55">
+        <v>1.018329938900204E-3</v>
+      </c>
+      <c r="D8" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="55">
+        <v>1.4090123620895919E-2</v>
+      </c>
+      <c r="D16" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="55">
+        <v>3.4564700799308711E-3</v>
+      </c>
+      <c r="D19" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="55">
+        <v>4.5990493240323478E-3</v>
+      </c>
+      <c r="D20" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="55">
+        <v>1.2957710159876221E-2</v>
+      </c>
+      <c r="D22" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="55">
+        <v>2.0449897750511249E-3</v>
+      </c>
+      <c r="D29" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="55">
+        <v>1.9057702488088941E-3</v>
+      </c>
+      <c r="D38" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="55">
+        <v>1.092896174863388E-3</v>
+      </c>
+      <c r="D44" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="55">
+        <v>1.3684817055603571E-2</v>
+      </c>
+      <c r="D45" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="55">
+        <v>1.3537906137184111E-3</v>
+      </c>
+      <c r="D50" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="D51" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="D53" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="D54" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="D55" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="D56" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="D59" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D62" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="55">
+        <v>2.6853509475893568E-3</v>
+      </c>
+      <c r="D63" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="D64" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="D65" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="D66" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D67" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="55">
+        <v>1.0985680733388891E-3</v>
+      </c>
+      <c r="D69" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="55">
+        <v>1.152405646787669E-3</v>
+      </c>
+      <c r="D70" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="55">
+        <v>3.3890382143274508E-3</v>
+      </c>
+      <c r="D73" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="D74" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="55">
+        <v>2.9243652798085868E-3</v>
+      </c>
+      <c r="D75" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="D76" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="D77" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="D78" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="D79" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="D80" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="D81" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="D82" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="D83" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="D84" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="D85" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="D86" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="D87" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D88" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="D89" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D90" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="D91" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="D92" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="B94" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94" s="55">
+        <v>1.018329938900204E-3</v>
+      </c>
+      <c r="D94" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="55">
+        <v>3.201773289822055E-3</v>
+      </c>
+      <c r="D95" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="D96" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="D97" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="D98" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="D99" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B100" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C100" s="55">
+        <v>1.063405556294032E-3</v>
+      </c>
+      <c r="D100" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="C101" s="55">
+        <v>1.018329938900204E-3</v>
+      </c>
+      <c r="D101" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="B102" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="C102" s="55">
+        <v>1.444760485800713E-3</v>
+      </c>
+      <c r="D102" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D103" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D104" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="D105" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D106" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B107" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" s="55">
+        <v>3.0250648228176318E-3</v>
+      </c>
+      <c r="D107" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="D108" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="D109" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D110" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="D111" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="D112" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="55">
+        <v>3.0244113199395118E-3</v>
+      </c>
+      <c r="D113" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="D114" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="D115" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="D116" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B117" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117" s="55">
+        <v>2.16076058772688E-3</v>
+      </c>
+      <c r="D117" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="B118" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C118" s="55">
+        <v>1.376389624139757E-3</v>
+      </c>
+      <c r="D118" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="D119" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" s="55">
+        <v>5.7306590257879646E-3</v>
+      </c>
+      <c r="D120" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="D121" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="B122" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C122" s="55">
+        <v>1.2961762799740761E-3</v>
+      </c>
+      <c r="D122" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B123" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C123" s="55">
+        <v>1.679261125104954E-3</v>
+      </c>
+      <c r="D123" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="D124" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="D125" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="D126" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="D127" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B128" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C128" s="55">
+        <v>2.5188916876574311E-3</v>
+      </c>
+      <c r="D128" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B129" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C129" s="55">
+        <v>1.8775816748028539E-3</v>
+      </c>
+      <c r="D129" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D130" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="D131" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B132" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C132" s="55">
+        <v>3.1588447653429601E-3</v>
+      </c>
+      <c r="D132" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D133" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="D134" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="D135" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="55">
+        <v>1.637830182870513E-2</v>
+      </c>
+      <c r="D136" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="D137" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="55">
+        <v>4.1981528127623836E-3</v>
+      </c>
+      <c r="D138" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="55">
+        <v>4.7755491881566383E-3</v>
+      </c>
+      <c r="D139" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B140" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C140" s="55">
+        <v>9.4282238442822391E-3</v>
+      </c>
+      <c r="D140" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="D141" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B142" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C142" s="55">
+        <v>2.3887497591986132E-3</v>
+      </c>
+      <c r="D142" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="D143" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D144" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="D145" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="D146" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="D147" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="D148" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="D149" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="D150" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="B151" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C151" s="55">
+        <v>1.0587612493382741E-3</v>
+      </c>
+      <c r="D151" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="D152" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B153" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C153" s="55">
+        <v>1.5122056599697559E-3</v>
+      </c>
+      <c r="D153" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B154" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C154" s="55">
+        <v>2.1876799078871618E-3</v>
+      </c>
+      <c r="D154" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="D155" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="D156" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="D157" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="D158" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="D159" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="D160" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="D161" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="D162" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B163" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C163" s="55">
+        <v>1.5682174594877159E-3</v>
+      </c>
+      <c r="D163" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="D164" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="D165" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="D166" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="D167" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B168" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" s="55">
+        <v>3.2786885245901639E-3</v>
+      </c>
+      <c r="D168" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="D169" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="D170" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="D171" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="D172" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B173" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C173" s="55">
+        <v>1.1070110701107011E-3</v>
+      </c>
+      <c r="D173" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="D174" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" s="55">
+        <v>2.8396814618186308E-3</v>
+      </c>
+      <c r="D175" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="D176" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="D177" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="D178" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" s="55">
+        <v>2.5141825683341929E-3</v>
+      </c>
+      <c r="D179" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="D180" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="D181" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="D182" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="D183" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B184" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C184" s="55">
+        <v>1.202565473009086E-3</v>
+      </c>
+      <c r="D184" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="D185" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B186" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="C186" s="55">
+        <v>1.679261125104954E-3</v>
+      </c>
+      <c r="D186" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B187" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C187" s="55">
+        <v>1.231451265316175E-3</v>
+      </c>
+      <c r="D187" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="D188" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B189" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C189" s="55">
+        <v>3.358522250209908E-3</v>
+      </c>
+      <c r="D189" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B190" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C190" s="55">
+        <v>1.012816018074871E-3</v>
+      </c>
+      <c r="D190" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="D191" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="54" t="s">
+        <v>306</v>
+      </c>
+      <c r="D192" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="D193" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B194" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C194" s="55">
+        <v>1.547189272821042E-3</v>
+      </c>
+      <c r="D194" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="D195" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="D196" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="D197" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="D198" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="D199" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="54" t="s">
+        <v>313</v>
+      </c>
+      <c r="D200" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="D201" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D202" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="D203" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="D204" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="D205" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D207" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="D208" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="D209" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="D210" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="D211" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B212" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C212" s="55">
+        <v>1.2964563526361281E-3</v>
+      </c>
+      <c r="D212" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" s="55">
+        <v>2.5188916876574311E-3</v>
+      </c>
+      <c r="D213" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B214" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="C214" s="55">
+        <v>1.0801468999783971E-3</v>
+      </c>
+      <c r="D214" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="D215" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="D216" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="D217" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" s="55">
+        <v>4.5366169799092677E-3</v>
+      </c>
+      <c r="D218" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" s="55">
+        <v>2.8088153589727761E-3</v>
+      </c>
+      <c r="D219" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="D220" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="D221" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="D222" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="D223" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="D224" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="D225" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="D226" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="D227" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B228" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C228" s="55">
+        <v>1.547189272821042E-3</v>
+      </c>
+      <c r="D228" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="D229" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D230" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="B231" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="C231" s="55">
+        <v>1.018329938900204E-3</v>
+      </c>
+      <c r="D231" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="D232" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="D233" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="D234" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="D235" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="D236" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="D237" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B238" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="C238" s="55">
+        <v>1.2075883292431151E-3</v>
+      </c>
+      <c r="D238" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="D239" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B240" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C240" s="55">
+        <v>3.9730913359519613E-3</v>
+      </c>
+      <c r="D240" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D241" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="D242" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="D243" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="D244" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="D245" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="D246" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="D247" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="D248" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="B249" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C249" s="55">
+        <v>1.013787510137875E-3</v>
+      </c>
+      <c r="D249" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B250" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C250" s="55">
+        <v>2.4384221248225199E-3</v>
+      </c>
+      <c r="D250" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="D251" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B252" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C252" s="55">
+        <v>2.4488619994237969E-3</v>
+      </c>
+      <c r="D252" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="D253" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="D254" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="D255" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="54" t="s">
+        <v>352</v>
+      </c>
+      <c r="D256" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B257" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C257" s="55">
+        <v>1.2729124236252551E-3</v>
+      </c>
+      <c r="D257" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B258" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C258" s="55">
+        <v>1.782077393075357E-3</v>
+      </c>
+      <c r="D258" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="D259" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="54" t="s">
+        <v>354</v>
+      </c>
+      <c r="D260" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B261" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C261" s="55">
+        <v>2.9605391297573141E-3</v>
+      </c>
+      <c r="D261" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="B262" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C262" s="55">
+        <v>1.625355546525802E-3</v>
+      </c>
+      <c r="D262" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D263" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="54" t="s">
+        <v>356</v>
+      </c>
+      <c r="D264" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B265" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C265" s="55">
+        <v>1.462182639904293E-3</v>
+      </c>
+      <c r="D265" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B266" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C266" s="55">
+        <v>1.2964563526361281E-3</v>
+      </c>
+      <c r="D266" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="D267" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B268" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C268" s="55">
+        <v>1.2961762799740761E-3</v>
+      </c>
+      <c r="D268" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="B269" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C269" s="55">
+        <v>1.08843537414966E-3</v>
+      </c>
+      <c r="D269" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B270" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C270" s="55">
+        <v>2.1656336345306552E-3</v>
+      </c>
+      <c r="D270" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B271" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C271" s="55">
+        <v>1.4016213349496169E-3</v>
+      </c>
+      <c r="D271" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="D272" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="54" t="s">
+        <v>359</v>
+      </c>
+      <c r="D273" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="D274" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="D275" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="D276" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="D277" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="D278" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B279" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C279" s="55">
+        <v>3.854845141565864E-3</v>
+      </c>
+      <c r="D279" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B280" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="C280" s="55">
+        <v>1.008354940939211E-3</v>
+      </c>
+      <c r="D280" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="D281" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="54" t="s">
+        <v>366</v>
+      </c>
+      <c r="D282" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="54" t="s">
+        <v>367</v>
+      </c>
+      <c r="D283" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="D284" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B285" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C285" s="55">
+        <v>2.8653295128939832E-3</v>
+      </c>
+      <c r="D285" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="D286" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="54" t="s">
+        <v>370</v>
+      </c>
+      <c r="D287" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="54" t="s">
+        <v>371</v>
+      </c>
+      <c r="D288" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="D289" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B290" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C290" s="55">
+        <v>4.5078019649393182E-3</v>
+      </c>
+      <c r="D290" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="54" t="s">
+        <v>373</v>
+      </c>
+      <c r="D291" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B292" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C292" s="55">
+        <v>2.900979886539454E-3</v>
+      </c>
+      <c r="D292" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="54" t="s">
+        <v>374</v>
+      </c>
+      <c r="D293" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="54" t="s">
+        <v>375</v>
+      </c>
+      <c r="D294" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D295" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B296" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C296" s="55">
+        <v>3.0299123259412068E-3</v>
+      </c>
+      <c r="D296" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B297" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C297" s="55">
+        <v>1.3816925734024179E-3</v>
+      </c>
+      <c r="D297" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B298" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C298" s="55">
+        <v>3.67249945992655E-3</v>
+      </c>
+      <c r="D298" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B299" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C299" s="55">
+        <v>1.654786150712831E-3</v>
+      </c>
+      <c r="D299" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="D300" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="D301" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B302" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C302" s="55">
+        <v>1.152405646787669E-3</v>
+      </c>
+      <c r="D302" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B303" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C303" s="55">
+        <v>2.0725388601036268E-3</v>
+      </c>
+      <c r="D303" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="D304" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B305" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C305" s="55">
+        <v>4.5836805818622621E-3</v>
+      </c>
+      <c r="D305" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="D306" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="54" t="s">
+        <v>381</v>
+      </c>
+      <c r="D307" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="54" t="s">
+        <v>382</v>
+      </c>
+      <c r="D308" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="B309" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="C309" s="55">
+        <v>1.4802695648786571E-3</v>
+      </c>
+      <c r="D309" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="54" t="s">
+        <v>383</v>
+      </c>
+      <c r="D310" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="54" t="s">
+        <v>384</v>
+      </c>
+      <c r="D311" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="54" t="s">
+        <v>385</v>
+      </c>
+      <c r="D312" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="54" t="s">
+        <v>386</v>
+      </c>
+      <c r="D313" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="D314" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D315" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="54" t="s">
+        <v>388</v>
+      </c>
+      <c r="D316" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="54" t="s">
+        <v>389</v>
+      </c>
+      <c r="D317" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="54" t="s">
+        <v>390</v>
+      </c>
+      <c r="D318" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="54" t="s">
+        <v>391</v>
+      </c>
+      <c r="D319" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D320" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="D321" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="54" t="s">
+        <v>393</v>
+      </c>
+      <c r="D322" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="D323" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D324" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B325" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C325" s="55">
+        <v>2.4351508734780309E-3</v>
+      </c>
+      <c r="D325" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B326" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C326" s="55">
+        <v>1.440507058484586E-3</v>
+      </c>
+      <c r="D326" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D327" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B328" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C328" s="55">
+        <v>2.9931972789115648E-3</v>
+      </c>
+      <c r="D328" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="D329" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D330" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="54" t="s">
+        <v>397</v>
+      </c>
+      <c r="D331" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="54" t="s">
+        <v>398</v>
+      </c>
+      <c r="D332" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="D333" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D334" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B335" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C335" s="55">
+        <v>1.3816925734024179E-3</v>
+      </c>
+      <c r="D335" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="D336" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B337" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C337" s="55">
+        <v>1.013787510137875E-3</v>
+      </c>
+      <c r="D337" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="D338" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D339" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B340" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C340" s="55">
+        <v>1.128719129531807E-3</v>
+      </c>
+      <c r="D340" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="54" t="s">
+        <v>402</v>
+      </c>
+      <c r="D341" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="D342" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D343" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B344" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C344" s="55">
+        <v>1.8706574024585779E-3</v>
+      </c>
+      <c r="D344" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B345" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C345" s="55">
+        <v>1.792248525128818E-3</v>
+      </c>
+      <c r="D345" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="D346" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="D347" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="D348" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B349" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C349" s="55">
+        <v>1.0801468999783971E-3</v>
+      </c>
+      <c r="D349" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="D350" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="D351" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D352" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="D353" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D354" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="D355" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="D356" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D357" s="54">
+        <f>SUM(D1:D356)</f>
+        <v>5</v>
+      </c>
+      <c r="E357" s="54">
+        <v>94</v>
+      </c>
+      <c r="F357" s="54">
+        <f>E357-D357</f>
+        <v>89</v>
+      </c>
+      <c r="G357" s="54" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD67"/>
   <sheetViews>
@@ -5052,7 +11431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N53"/>
   <sheetViews>
@@ -6019,11 +12398,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FBEC09-68B9-445B-A9FE-5B8FD50334A6}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -6604,7 +12983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
@@ -6909,4 +13288,395 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515E0600-FBC5-492B-B5EB-9D88583EFF82}">
+  <dimension ref="A1:A373"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="2" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="3" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="4" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="5" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="6" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="7" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="8" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="9" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="10" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="11" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="12" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="13" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="14" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="15" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="16" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="14.25" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A372">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/master2/output/heads_compare.xlsx
+++ b/master2/output/heads_compare.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie_000\Documents\GitHub\tal\master2\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9275BAC-C8B8-4CAB-BC31-98345A378FFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C69278-287E-4989-B7BA-753E2A31F834}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7140" yWindow="945" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="New Compare Corpus Trans" sheetId="5" r:id="rId1"/>
-    <sheet name="New Trans vs Disc" sheetId="6" r:id="rId2"/>
-    <sheet name="Best TRANS for each" sheetId="1" r:id="rId3"/>
-    <sheet name="Compare c1n, c2nA, c2nB" sheetId="2" r:id="rId4"/>
-    <sheet name="all" sheetId="4" r:id="rId5"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId6"/>
-    <sheet name="Feuil4" sheetId="7" r:id="rId7"/>
+    <sheet name="Trans" sheetId="7" r:id="rId1"/>
+    <sheet name="New Compare Corpus Trans" sheetId="5" r:id="rId2"/>
+    <sheet name="New Trans vs Disc" sheetId="6" r:id="rId3"/>
+    <sheet name="Best TRANS for each" sheetId="1" r:id="rId4"/>
+    <sheet name="Compare c1n, c2nA, c2nB" sheetId="2" r:id="rId5"/>
+    <sheet name="all" sheetId="4" r:id="rId6"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="439">
   <si>
     <t>c1n</t>
   </si>
@@ -1345,6 +1345,12 @@
   </si>
   <si>
     <t>% communs</t>
+  </si>
+  <si>
+    <t>Legallois</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1643,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -1792,6 +1798,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2132,12 +2139,633 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D1D830-E714-4FAA-8A52-7865C299F082}">
+  <dimension ref="A1:B125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="54"/>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="54"/>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="54"/>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="54"/>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="54"/>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="54" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="54" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="54"/>
+    </row>
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="54"/>
+    </row>
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="54"/>
+    </row>
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="82"/>
+    </row>
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="54"/>
+    </row>
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="54"/>
+    </row>
+    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="54"/>
+    </row>
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="54"/>
+    </row>
+    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="54"/>
+    </row>
+    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="54" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="54" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="54"/>
+    </row>
+    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="54"/>
+    </row>
+    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="54"/>
+    </row>
+    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="54" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="54"/>
+    </row>
+    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="54"/>
+    </row>
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="54"/>
+    </row>
+    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="54"/>
+    </row>
+    <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="54"/>
+    </row>
+    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="54"/>
+    </row>
+    <row r="116" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A117" s="54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A118" s="54"/>
+    </row>
+    <row r="119" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119" s="54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121" s="54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122" s="54"/>
+    </row>
+    <row r="123" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123" s="54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A124" s="54"/>
+    </row>
+    <row r="125" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A125" s="53">
+        <f>COUNTA(A2:A124)</f>
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3292D10D-54FC-45AA-B3B1-4B4A0A393270}">
   <dimension ref="A1:P126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N126" sqref="N126"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A125" sqref="A1:A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6975,11 +7603,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AB4A7B-5301-4E48-9A7E-EF1BF9F68963}">
   <dimension ref="A1:F364"/>
   <sheetViews>
-    <sheetView topLeftCell="A333" workbookViewId="0">
+    <sheetView topLeftCell="A330" workbookViewId="0">
       <selection activeCell="E358" sqref="E358"/>
     </sheetView>
   </sheetViews>
@@ -10911,7 +11539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD67"/>
   <sheetViews>
@@ -14896,7 +15524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N53"/>
   <sheetViews>
@@ -15863,7 +16491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FBEC09-68B9-445B-A9FE-5B8FD50334A6}">
   <dimension ref="A1:F61"/>
   <sheetViews>
@@ -16448,12 +17076,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16753,21 +17381,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515E0600-FBC5-492B-B5EB-9D88583EFF82}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A372">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/master2/output/heads_compare.xlsx
+++ b/master2/output/heads_compare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie_000\Documents\GitHub\tal\master2\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C69278-287E-4989-B7BA-753E2A31F834}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC08CB69-936A-49CF-80FA-B9D9840D17ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="0" windowWidth="19605" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trans" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="441">
   <si>
     <t>c1n</t>
   </si>
@@ -1351,6 +1351,12 @@
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t>Corpus + Sig</t>
+  </si>
+  <si>
+    <t>Corpus + Leg.</t>
   </si>
 </sst>
 </file>
@@ -2142,7 +2148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D1D830-E714-4FAA-8A52-7865C299F082}">
   <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
@@ -2761,11 +2767,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3292D10D-54FC-45AA-B3B1-4B4A0A393270}">
-  <dimension ref="A1:P126"/>
+  <dimension ref="A1:X126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A125" sqref="A1:A125"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W125" sqref="W125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2781,7 +2787,7 @@
     <col min="17" max="16384" width="11" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>182</v>
       </c>
@@ -2825,8 +2831,26 @@
         <v>421</v>
       </c>
       <c r="P1" s="61"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R1" s="68" t="s">
+        <v>417</v>
+      </c>
+      <c r="S1" s="73" t="s">
+        <v>416</v>
+      </c>
+      <c r="T1" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="U1" s="66" t="s">
+        <v>421</v>
+      </c>
+      <c r="V1" s="66" t="s">
+        <v>439</v>
+      </c>
+      <c r="W1" s="66" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>52</v>
       </c>
@@ -2858,8 +2882,23 @@
         <v>59</v>
       </c>
       <c r="P2" s="60"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R2" s="69">
+        <v>1</v>
+      </c>
+      <c r="S2" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="76">
+        <v>1</v>
+      </c>
+      <c r="U2" s="64">
+        <v>59</v>
+      </c>
+      <c r="V2" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>181</v>
       </c>
@@ -2894,8 +2933,19 @@
       <c r="P3" s="60" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R3" s="70">
+        <f>R2+1</f>
+        <v>2</v>
+      </c>
+      <c r="S3" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="T3" s="77">
+        <v>1</v>
+      </c>
+      <c r="U3" s="65"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>2</v>
       </c>
@@ -2940,8 +2990,27 @@
         <v>178</v>
       </c>
       <c r="P4" s="60"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R4" s="69">
+        <f t="shared" ref="R4:R67" si="1">R3+1</f>
+        <v>3</v>
+      </c>
+      <c r="S4" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="76">
+        <v>1</v>
+      </c>
+      <c r="U4" s="64">
+        <v>178</v>
+      </c>
+      <c r="V4" s="54">
+        <v>1</v>
+      </c>
+      <c r="W4" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>36</v>
       </c>
@@ -2986,8 +3055,24 @@
         <v>44</v>
       </c>
       <c r="P5" s="60"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R5" s="70">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S5" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="77">
+        <v>1</v>
+      </c>
+      <c r="U5" s="65">
+        <v>44</v>
+      </c>
+      <c r="V5" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
@@ -3031,8 +3116,24 @@
       <c r="O6" s="64">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R6" s="69">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="S6" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" s="76">
+        <v>1</v>
+      </c>
+      <c r="U6" s="64">
+        <v>16</v>
+      </c>
+      <c r="V6" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
         <v>4</v>
       </c>
@@ -3076,8 +3177,24 @@
       <c r="O7" s="65">
         <v>246</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R7" s="70">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="S7" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" s="77">
+        <v>1</v>
+      </c>
+      <c r="U7" s="65">
+        <v>246</v>
+      </c>
+      <c r="V7" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
         <v>56</v>
       </c>
@@ -3115,8 +3232,27 @@
       <c r="O8" s="64">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R8" s="69">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="S8" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="T8" s="76">
+        <v>1</v>
+      </c>
+      <c r="U8" s="64">
+        <v>78</v>
+      </c>
+      <c r="V8" s="54">
+        <v>1</v>
+      </c>
+      <c r="W8" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
         <v>84</v>
       </c>
@@ -3150,8 +3286,24 @@
       <c r="O9" s="65">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R9" s="70">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S9" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="T9" s="77">
+        <v>1</v>
+      </c>
+      <c r="U9" s="65">
+        <v>83</v>
+      </c>
+      <c r="V9" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>180</v>
       </c>
@@ -3190,8 +3342,24 @@
         <v>31</v>
       </c>
       <c r="P10" s="60"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R10" s="69">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="S10" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="T10" s="76">
+        <v>1</v>
+      </c>
+      <c r="U10" s="64">
+        <v>31</v>
+      </c>
+      <c r="V10" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>62</v>
       </c>
@@ -3226,8 +3394,24 @@
         <v>890</v>
       </c>
       <c r="P11" s="60"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R11" s="70">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="S11" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11" s="77">
+        <v>1</v>
+      </c>
+      <c r="U11" s="65">
+        <v>890</v>
+      </c>
+      <c r="V11" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
         <v>179</v>
       </c>
@@ -3260,8 +3444,24 @@
         <v>209</v>
       </c>
       <c r="P12" s="60"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R12" s="69">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="S12" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="T12" s="76">
+        <v>1</v>
+      </c>
+      <c r="U12" s="64">
+        <v>209</v>
+      </c>
+      <c r="V12" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>32</v>
       </c>
@@ -3301,8 +3501,24 @@
         <v>44</v>
       </c>
       <c r="P13" s="60"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R13" s="70">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="S13" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" s="77">
+        <v>1</v>
+      </c>
+      <c r="U13" s="65">
+        <v>44</v>
+      </c>
+      <c r="V13" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C14" s="57" t="s">
         <v>112</v>
       </c>
@@ -3327,8 +3543,19 @@
         <v>18</v>
       </c>
       <c r="P14" s="60"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R14" s="69">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="S14" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="T14" s="76"/>
+      <c r="U14" s="64">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
         <v>178</v>
       </c>
@@ -3363,8 +3590,27 @@
         <v>143</v>
       </c>
       <c r="P15" s="60"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R15" s="70">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="S15" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="T15" s="77">
+        <v>1</v>
+      </c>
+      <c r="U15" s="65">
+        <v>143</v>
+      </c>
+      <c r="V15" s="54">
+        <v>1</v>
+      </c>
+      <c r="W15" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D16" s="57" t="s">
         <v>177</v>
       </c>
@@ -3391,8 +3637,22 @@
         <v>248</v>
       </c>
       <c r="P16" s="60"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R16" s="69">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="S16" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="T16" s="76"/>
+      <c r="U16" s="64">
+        <v>248</v>
+      </c>
+      <c r="X16" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
         <v>44</v>
       </c>
@@ -3432,8 +3692,27 @@
         <v>132</v>
       </c>
       <c r="P17" s="60"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R17" s="70">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="S17" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="T17" s="77">
+        <v>1</v>
+      </c>
+      <c r="U17" s="65">
+        <v>132</v>
+      </c>
+      <c r="V17" s="54">
+        <v>1</v>
+      </c>
+      <c r="W17" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
         <v>13</v>
       </c>
@@ -3478,8 +3757,24 @@
         <v>2</v>
       </c>
       <c r="P18" s="60"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R18" s="69">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="S18" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="T18" s="76">
+        <v>1</v>
+      </c>
+      <c r="U18" s="64">
+        <v>2</v>
+      </c>
+      <c r="V18" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C19" s="57" t="s">
         <v>18</v>
       </c>
@@ -3514,8 +3809,19 @@
         <v>73</v>
       </c>
       <c r="P19" s="60"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R19" s="70">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="S19" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="T19" s="77"/>
+      <c r="U19" s="65">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>18</v>
       </c>
@@ -3554,8 +3860,24 @@
         <v>16</v>
       </c>
       <c r="P20" s="60"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R20" s="69">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="S20" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="T20" s="76">
+        <v>1</v>
+      </c>
+      <c r="U20" s="64">
+        <v>16</v>
+      </c>
+      <c r="V20" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B21" s="57" t="s">
         <v>175</v>
       </c>
@@ -3585,8 +3907,19 @@
         <v>3</v>
       </c>
       <c r="P21" s="60"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R21" s="70">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="S21" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="T21" s="77"/>
+      <c r="U21" s="65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C22" s="57" t="s">
         <v>107</v>
       </c>
@@ -3610,8 +3943,17 @@
       <c r="P22" s="60" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R22" s="69">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="S22" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="T22" s="76"/>
+      <c r="U22" s="64"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
         <v>91</v>
       </c>
@@ -3644,8 +3986,24 @@
         <v>26</v>
       </c>
       <c r="P23" s="60"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R23" s="70">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="S23" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="T23" s="77">
+        <v>1</v>
+      </c>
+      <c r="U23" s="65">
+        <v>26</v>
+      </c>
+      <c r="V23" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D24" s="57" t="s">
         <v>174</v>
       </c>
@@ -3672,8 +4030,19 @@
         <v>68</v>
       </c>
       <c r="P24" s="60"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R24" s="69">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="S24" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="T24" s="76"/>
+      <c r="U24" s="64">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D25" s="57" t="s">
         <v>173</v>
       </c>
@@ -3705,8 +4074,19 @@
       <c r="P25" s="60" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R25" s="70">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="S25" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="T25" s="77"/>
+      <c r="U25" s="65">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
         <v>23</v>
       </c>
@@ -3751,8 +4131,24 @@
         <v>39</v>
       </c>
       <c r="P26" s="60"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R26" s="69">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="S26" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="T26" s="76">
+        <v>1</v>
+      </c>
+      <c r="U26" s="64">
+        <v>39</v>
+      </c>
+      <c r="V26" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
         <v>172</v>
       </c>
@@ -3782,8 +4178,24 @@
         <v>8</v>
       </c>
       <c r="P27" s="60"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R27" s="70">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="S27" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="T27" s="77">
+        <v>1</v>
+      </c>
+      <c r="U27" s="65">
+        <v>8</v>
+      </c>
+      <c r="V27" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
         <v>171</v>
       </c>
@@ -3814,8 +4226,27 @@
         <v>51</v>
       </c>
       <c r="P28" s="60"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R28" s="69">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="S28" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="T28" s="76">
+        <v>1</v>
+      </c>
+      <c r="U28" s="64">
+        <v>51</v>
+      </c>
+      <c r="V28" s="54">
+        <v>1</v>
+      </c>
+      <c r="W28" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
         <v>170</v>
       </c>
@@ -3855,8 +4286,24 @@
         <v>7</v>
       </c>
       <c r="P29" s="60"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R29" s="70">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="S29" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="T29" s="77">
+        <v>1</v>
+      </c>
+      <c r="U29" s="65">
+        <v>7</v>
+      </c>
+      <c r="V29" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D30" s="57" t="s">
         <v>125</v>
       </c>
@@ -3883,8 +4330,19 @@
         <v>44</v>
       </c>
       <c r="P30" s="60"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R30" s="69">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="S30" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="T30" s="76"/>
+      <c r="U30" s="64">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
         <v>31</v>
       </c>
@@ -3927,8 +4385,19 @@
       <c r="P31" s="63" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R31" s="70">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="S31" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="T31" s="77">
+        <v>1</v>
+      </c>
+      <c r="U31" s="65"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C32" s="57" t="s">
         <v>57</v>
       </c>
@@ -3952,8 +4421,17 @@
       <c r="P32" s="60" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R32" s="69">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="S32" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="T32" s="76"/>
+      <c r="U32" s="64"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="54" t="s">
         <v>3</v>
       </c>
@@ -3997,8 +4475,27 @@
       <c r="O33" s="65">
         <v>393</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R33" s="70">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="S33" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="77">
+        <v>1</v>
+      </c>
+      <c r="U33" s="65">
+        <v>393</v>
+      </c>
+      <c r="V33" s="54">
+        <v>1</v>
+      </c>
+      <c r="W33" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="54" t="s">
         <v>49</v>
       </c>
@@ -4037,8 +4534,27 @@
         <v>33</v>
       </c>
       <c r="P34" s="60"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R34" s="69">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="S34" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="T34" s="76">
+        <v>1</v>
+      </c>
+      <c r="U34" s="64">
+        <v>33</v>
+      </c>
+      <c r="V34" s="54">
+        <v>1</v>
+      </c>
+      <c r="W34" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="54" t="s">
         <v>169</v>
       </c>
@@ -4076,8 +4592,19 @@
       <c r="P35" s="60" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R35" s="70">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="S35" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="T35" s="77">
+        <v>1</v>
+      </c>
+      <c r="U35" s="65"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="54" t="s">
         <v>20</v>
       </c>
@@ -4119,8 +4646,19 @@
       <c r="P36" s="60" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R36" s="69">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="S36" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="T36" s="76">
+        <v>1</v>
+      </c>
+      <c r="U36" s="64"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="54" t="s">
         <v>121</v>
       </c>
@@ -4153,8 +4691,24 @@
         <v>16</v>
       </c>
       <c r="P37" s="60"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R37" s="70">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="S37" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="T37" s="77">
+        <v>1</v>
+      </c>
+      <c r="U37" s="65">
+        <v>16</v>
+      </c>
+      <c r="V37" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
         <v>102</v>
       </c>
@@ -4184,8 +4738,19 @@
       <c r="P38" s="63" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R38" s="69">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="S38" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="T38" s="76">
+        <v>1</v>
+      </c>
+      <c r="U38" s="64"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="54" t="s">
         <v>38</v>
       </c>
@@ -4228,8 +4793,19 @@
       <c r="P39" s="63" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R39" s="70">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="S39" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="T39" s="77">
+        <v>1</v>
+      </c>
+      <c r="U39" s="65"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="54" t="s">
         <v>88</v>
       </c>
@@ -4266,8 +4842,24 @@
         <v>41</v>
       </c>
       <c r="P40" s="60"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R40" s="69">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="S40" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="T40" s="76">
+        <v>1</v>
+      </c>
+      <c r="U40" s="64">
+        <v>41</v>
+      </c>
+      <c r="V40" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="54" t="s">
         <v>75</v>
       </c>
@@ -4312,8 +4904,24 @@
         <v>10</v>
       </c>
       <c r="P41" s="60"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R41" s="70">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="S41" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="T41" s="77">
+        <v>1</v>
+      </c>
+      <c r="U41" s="65">
+        <v>10</v>
+      </c>
+      <c r="V41" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="54" t="s">
         <v>1</v>
       </c>
@@ -4358,8 +4966,24 @@
         <v>18</v>
       </c>
       <c r="P42" s="60"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R42" s="69">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="S42" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="T42" s="76">
+        <v>1</v>
+      </c>
+      <c r="U42" s="64">
+        <v>18</v>
+      </c>
+      <c r="V42" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="s">
         <v>8</v>
       </c>
@@ -4404,8 +5028,27 @@
         <v>10</v>
       </c>
       <c r="P43" s="60"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R43" s="70">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="S43" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="T43" s="77">
+        <v>1</v>
+      </c>
+      <c r="U43" s="65">
+        <v>10</v>
+      </c>
+      <c r="V43" s="54">
+        <v>1</v>
+      </c>
+      <c r="W43" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="54" t="s">
         <v>9</v>
       </c>
@@ -4450,8 +5093,24 @@
         <v>39</v>
       </c>
       <c r="P44" s="60"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R44" s="69">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="S44" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="T44" s="76">
+        <v>1</v>
+      </c>
+      <c r="U44" s="64">
+        <v>39</v>
+      </c>
+      <c r="V44" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
         <v>65</v>
       </c>
@@ -4491,8 +5150,27 @@
         <v>421</v>
       </c>
       <c r="P45" s="60"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R45" s="70">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="S45" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="T45" s="77">
+        <v>1</v>
+      </c>
+      <c r="U45" s="65">
+        <v>421</v>
+      </c>
+      <c r="V45" s="54">
+        <v>1</v>
+      </c>
+      <c r="W45" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
         <v>82</v>
       </c>
@@ -4537,8 +5215,24 @@
         <v>3</v>
       </c>
       <c r="P46" s="60"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R46" s="69">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="S46" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="T46" s="76">
+        <v>1</v>
+      </c>
+      <c r="U46" s="64">
+        <v>3</v>
+      </c>
+      <c r="V46" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
         <v>168</v>
       </c>
@@ -4583,8 +5277,24 @@
       <c r="P47" s="60" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R47" s="70">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="S47" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="T47" s="77">
+        <v>1</v>
+      </c>
+      <c r="U47" s="65">
+        <v>88</v>
+      </c>
+      <c r="V47" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B48" s="57" t="s">
         <v>167</v>
       </c>
@@ -4611,8 +5321,19 @@
         <v>150</v>
       </c>
       <c r="P48" s="60"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R48" s="69">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="S48" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="T48" s="76"/>
+      <c r="U48" s="64">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="s">
         <v>110</v>
       </c>
@@ -4655,8 +5376,19 @@
       <c r="P49" s="60" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R49" s="70">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="S49" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="T49" s="77">
+        <v>1</v>
+      </c>
+      <c r="U49" s="65"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="54" t="s">
         <v>51</v>
       </c>
@@ -4700,8 +5432,24 @@
       <c r="O50" s="64">
         <v>88</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R50" s="69">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="S50" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="T50" s="76">
+        <v>1</v>
+      </c>
+      <c r="U50" s="64">
+        <v>88</v>
+      </c>
+      <c r="V50" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">
         <v>37</v>
       </c>
@@ -4741,8 +5489,19 @@
       <c r="P51" s="60" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R51" s="70">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="S51" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="T51" s="77">
+        <v>1</v>
+      </c>
+      <c r="U51" s="65"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="54" t="s">
         <v>22</v>
       </c>
@@ -4785,8 +5544,24 @@
         <v>20</v>
       </c>
       <c r="P52" s="60"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R52" s="69">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="S52" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="T52" s="76">
+        <v>1</v>
+      </c>
+      <c r="U52" s="64">
+        <v>20</v>
+      </c>
+      <c r="V52" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C53" s="57" t="s">
         <v>166</v>
       </c>
@@ -4814,8 +5589,19 @@
         <v>3</v>
       </c>
       <c r="P53" s="60"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R53" s="70">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="S53" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="T53" s="77"/>
+      <c r="U53" s="65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D54" s="57" t="s">
         <v>165</v>
       </c>
@@ -4839,8 +5625,19 @@
       <c r="O54" s="64">
         <v>33</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R54" s="69">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="S54" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="T54" s="76"/>
+      <c r="U54" s="64">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="54" t="s">
         <v>164</v>
       </c>
@@ -4885,8 +5682,24 @@
         <v>5</v>
       </c>
       <c r="P55" s="60"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R55" s="70">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="S55" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="T55" s="77">
+        <v>1</v>
+      </c>
+      <c r="U55" s="65">
+        <v>5</v>
+      </c>
+      <c r="V55" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="54" t="s">
         <v>15</v>
       </c>
@@ -4929,8 +5742,24 @@
         <v>96</v>
       </c>
       <c r="P56" s="60"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R56" s="69">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="S56" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="T56" s="76">
+        <v>1</v>
+      </c>
+      <c r="U56" s="64">
+        <v>96</v>
+      </c>
+      <c r="V56" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="54" t="s">
         <v>5</v>
       </c>
@@ -4975,8 +5804,24 @@
         <v>44</v>
       </c>
       <c r="P57" s="60"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R57" s="70">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="S57" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="77">
+        <v>1</v>
+      </c>
+      <c r="U57" s="65">
+        <v>44</v>
+      </c>
+      <c r="V57" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="54" t="s">
         <v>108</v>
       </c>
@@ -5014,8 +5859,19 @@
       <c r="P58" s="62" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R58" s="69">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="S58" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="T58" s="76">
+        <v>1</v>
+      </c>
+      <c r="U58" s="64"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="54" t="s">
         <v>163</v>
       </c>
@@ -5060,8 +5916,24 @@
         <v>15</v>
       </c>
       <c r="P59" s="60"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R59" s="70">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="S59" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="T59" s="77">
+        <v>1</v>
+      </c>
+      <c r="U59" s="65">
+        <v>15</v>
+      </c>
+      <c r="V59" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="54" t="s">
         <v>122</v>
       </c>
@@ -5100,8 +5972,27 @@
         <v>29</v>
       </c>
       <c r="P60" s="60"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R60" s="69">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="S60" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="T60" s="76">
+        <v>1</v>
+      </c>
+      <c r="U60" s="64">
+        <v>29</v>
+      </c>
+      <c r="V60" s="54">
+        <v>1</v>
+      </c>
+      <c r="W60" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="54" t="s">
         <v>39</v>
       </c>
@@ -5145,8 +6036,24 @@
       <c r="O61" s="65">
         <v>70</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R61" s="70">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="S61" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="T61" s="77">
+        <v>1</v>
+      </c>
+      <c r="U61" s="65">
+        <v>70</v>
+      </c>
+      <c r="V61" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="54" t="s">
         <v>162</v>
       </c>
@@ -5188,8 +6095,19 @@
       <c r="P62" s="60" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R62" s="69">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="S62" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="T62" s="76">
+        <v>1</v>
+      </c>
+      <c r="U62" s="64"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D63" s="57" t="s">
         <v>161</v>
       </c>
@@ -5219,8 +6137,19 @@
       <c r="P63" s="60" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R63" s="70">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="S63" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="T63" s="77"/>
+      <c r="U63" s="65">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="54" t="s">
         <v>105</v>
       </c>
@@ -5261,8 +6190,24 @@
       <c r="P64" s="60" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R64" s="69">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="S64" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="T64" s="76">
+        <v>1</v>
+      </c>
+      <c r="U64" s="64">
+        <v>33</v>
+      </c>
+      <c r="V64" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D65" s="57" t="s">
         <v>160</v>
       </c>
@@ -5292,8 +6237,22 @@
         <v>10</v>
       </c>
       <c r="P65" s="60"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R65" s="70">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="S65" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="T65" s="77"/>
+      <c r="U65" s="65">
+        <v>10</v>
+      </c>
+      <c r="X65" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="54" t="s">
         <v>25</v>
       </c>
@@ -5332,8 +6291,24 @@
         <v>46</v>
       </c>
       <c r="P66" s="60"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R66" s="69">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="S66" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="T66" s="76">
+        <v>1</v>
+      </c>
+      <c r="U66" s="64">
+        <v>46</v>
+      </c>
+      <c r="V66" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="54" t="s">
         <v>10</v>
       </c>
@@ -5378,8 +6353,24 @@
         <v>280</v>
       </c>
       <c r="P67" s="60"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R67" s="70">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="S67" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="T67" s="77">
+        <v>1</v>
+      </c>
+      <c r="U67" s="65">
+        <v>280</v>
+      </c>
+      <c r="V67" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="54" t="s">
         <v>159</v>
       </c>
@@ -5396,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="69">
-        <f t="shared" ref="H68:H124" si="1">H67+1</f>
+        <f t="shared" ref="H68:H124" si="2">H67+1</f>
         <v>67</v>
       </c>
       <c r="I68" s="72" t="s">
@@ -5416,8 +6407,24 @@
         <v>13</v>
       </c>
       <c r="P68" s="60"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R68" s="69">
+        <f t="shared" ref="R68:R124" si="3">R67+1</f>
+        <v>67</v>
+      </c>
+      <c r="S68" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="T68" s="76">
+        <v>1</v>
+      </c>
+      <c r="U68" s="64">
+        <v>13</v>
+      </c>
+      <c r="V68" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D69" s="57" t="s">
         <v>158</v>
       </c>
@@ -5428,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="I69" s="70" t="s">
@@ -5446,8 +6453,19 @@
       <c r="O69" s="65">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R69" s="70">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="S69" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="T69" s="77"/>
+      <c r="U69" s="65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="54" t="s">
         <v>6</v>
       </c>
@@ -5467,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="I70" s="72" t="s">
@@ -5492,8 +6510,24 @@
         <v>474</v>
       </c>
       <c r="P70" s="60"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R70" s="69">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="S70" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T70" s="76">
+        <v>1</v>
+      </c>
+      <c r="U70" s="64">
+        <v>474</v>
+      </c>
+      <c r="V70" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="54" t="s">
         <v>7</v>
       </c>
@@ -5513,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="I71" s="70" t="s">
@@ -5538,8 +6572,24 @@
         <v>3</v>
       </c>
       <c r="P71" s="60"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R71" s="70">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="S71" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="T71" s="77">
+        <v>1</v>
+      </c>
+      <c r="U71" s="65">
+        <v>3</v>
+      </c>
+      <c r="V71" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D72" s="57" t="s">
         <v>157</v>
       </c>
@@ -5550,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="I72" s="72" t="s">
@@ -5564,8 +6614,19 @@
         <v>2</v>
       </c>
       <c r="P72" s="60"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R72" s="69">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="S72" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="T72" s="76"/>
+      <c r="U72" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="54" t="s">
         <v>33</v>
       </c>
@@ -5585,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="I73" s="70" t="s">
@@ -5607,8 +6668,24 @@
       <c r="O73" s="65">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R73" s="70">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="S73" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="T73" s="77">
+        <v>1</v>
+      </c>
+      <c r="U73" s="65">
+        <v>13</v>
+      </c>
+      <c r="V73" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B74" s="57" t="s">
         <v>156</v>
       </c>
@@ -5619,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="I74" s="72" t="s">
@@ -5635,8 +6712,19 @@
         <v>73</v>
       </c>
       <c r="P74" s="60"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R74" s="69">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="S74" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="T74" s="76"/>
+      <c r="U74" s="64">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="54" t="s">
         <v>155</v>
       </c>
@@ -5650,7 +6738,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="I75" s="70" t="s">
@@ -5671,8 +6759,27 @@
         <v>3</v>
       </c>
       <c r="P75" s="60"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R75" s="70">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="S75" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="T75" s="77">
+        <v>1</v>
+      </c>
+      <c r="U75" s="65">
+        <v>3</v>
+      </c>
+      <c r="V75" s="54">
+        <v>1</v>
+      </c>
+      <c r="W75" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="54" t="s">
         <v>154</v>
       </c>
@@ -5689,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="I76" s="72" t="s">
@@ -5711,8 +6818,24 @@
         <v>13</v>
       </c>
       <c r="P76" s="60"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R76" s="69">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="S76" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="T76" s="76">
+        <v>1</v>
+      </c>
+      <c r="U76" s="64">
+        <v>13</v>
+      </c>
+      <c r="V76" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="54" t="s">
         <v>48</v>
       </c>
@@ -5732,7 +6855,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="I77" s="70" t="s">
@@ -5757,8 +6880,24 @@
         <v>7</v>
       </c>
       <c r="P77" s="60"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R77" s="70">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="S77" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="T77" s="77">
+        <v>1</v>
+      </c>
+      <c r="U77" s="65">
+        <v>7</v>
+      </c>
+      <c r="V77" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="54" t="s">
         <v>153</v>
       </c>
@@ -5769,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="I78" s="72" t="s">
@@ -5785,8 +6924,24 @@
         <v>85</v>
       </c>
       <c r="P78" s="60"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R78" s="69">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="S78" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="T78" s="76">
+        <v>1</v>
+      </c>
+      <c r="U78" s="64">
+        <v>85</v>
+      </c>
+      <c r="V78" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D79" s="57" t="s">
         <v>152</v>
       </c>
@@ -5797,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="I79" s="70" t="s">
@@ -5814,8 +6969,22 @@
         <v>11</v>
       </c>
       <c r="P79" s="60"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R79" s="70">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="S79" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="T79" s="77"/>
+      <c r="U79" s="65">
+        <v>11</v>
+      </c>
+      <c r="W79" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D80" s="57" t="s">
         <v>151</v>
       </c>
@@ -5826,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="I80" s="72" t="s">
@@ -5842,8 +7011,19 @@
       <c r="P80" s="60" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R80" s="69">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="S80" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="T80" s="76"/>
+      <c r="U80" s="64">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="54" t="s">
         <v>81</v>
       </c>
@@ -5860,7 +7040,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="I81" s="70" t="s">
@@ -5883,8 +7063,24 @@
         <v>36</v>
       </c>
       <c r="P81" s="60"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R81" s="70">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="S81" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="T81" s="77">
+        <v>1</v>
+      </c>
+      <c r="U81" s="65">
+        <v>36</v>
+      </c>
+      <c r="V81" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D82" s="57" t="s">
         <v>150</v>
       </c>
@@ -5895,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="I82" s="72" t="s">
@@ -5911,8 +7107,19 @@
       <c r="P82" s="60" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R82" s="69">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="S82" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="T82" s="76"/>
+      <c r="U82" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="54" t="s">
         <v>29</v>
       </c>
@@ -5932,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="I83" s="70" t="s">
@@ -5957,8 +7164,24 @@
         <v>21</v>
       </c>
       <c r="P83" s="60"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R83" s="70">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="S83" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="T83" s="77">
+        <v>1</v>
+      </c>
+      <c r="U83" s="65">
+        <v>21</v>
+      </c>
+      <c r="V83" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="54" t="s">
         <v>93</v>
       </c>
@@ -5975,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="I84" s="72" t="s">
@@ -5995,8 +7218,27 @@
         <v>393</v>
       </c>
       <c r="P84" s="60"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R84" s="69">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="S84" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="T84" s="76">
+        <v>1</v>
+      </c>
+      <c r="U84" s="64">
+        <v>393</v>
+      </c>
+      <c r="V84" s="54">
+        <v>1</v>
+      </c>
+      <c r="W84" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="54" t="s">
         <v>16</v>
       </c>
@@ -6016,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="H85" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="I85" s="70" t="s">
@@ -6039,8 +7281,24 @@
         <v>2</v>
       </c>
       <c r="P85" s="60"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R85" s="70">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="S85" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="T85" s="77">
+        <v>1</v>
+      </c>
+      <c r="U85" s="65">
+        <v>2</v>
+      </c>
+      <c r="V85" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="54" t="s">
         <v>17</v>
       </c>
@@ -6060,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="I86" s="72" t="s">
@@ -6083,8 +7341,24 @@
         <v>73</v>
       </c>
       <c r="P86" s="60"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R86" s="69">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="S86" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="T86" s="76">
+        <v>1</v>
+      </c>
+      <c r="U86" s="64">
+        <v>73</v>
+      </c>
+      <c r="V86" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="54" t="s">
         <v>47</v>
       </c>
@@ -6104,7 +7378,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="I87" s="70" t="s">
@@ -6129,8 +7403,24 @@
         <v>11</v>
       </c>
       <c r="P87" s="60"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R87" s="70">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="S87" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="T87" s="77">
+        <v>1</v>
+      </c>
+      <c r="U87" s="65">
+        <v>11</v>
+      </c>
+      <c r="V87" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="54" t="s">
         <v>120</v>
       </c>
@@ -6144,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="I88" s="72" t="s">
@@ -6162,8 +7452,27 @@
       <c r="O88" s="64">
         <v>251</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R88" s="69">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="S88" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="T88" s="76">
+        <v>1</v>
+      </c>
+      <c r="U88" s="64">
+        <v>251</v>
+      </c>
+      <c r="V88" s="54">
+        <v>1</v>
+      </c>
+      <c r="W88" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D89" s="57" t="s">
         <v>149</v>
       </c>
@@ -6174,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="I89" s="70" t="s">
@@ -6193,8 +7502,19 @@
       <c r="P89" s="60" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R89" s="70">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="S89" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="T89" s="77"/>
+      <c r="U89" s="65">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="54" t="s">
         <v>103</v>
       </c>
@@ -6211,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="I90" s="72" t="s">
@@ -6233,8 +7553,27 @@
         <v>619</v>
       </c>
       <c r="P90" s="60"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R90" s="69">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="S90" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="T90" s="76">
+        <v>1</v>
+      </c>
+      <c r="U90" s="64">
+        <v>619</v>
+      </c>
+      <c r="V90" s="54">
+        <v>1</v>
+      </c>
+      <c r="W90" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="54" t="s">
         <v>104</v>
       </c>
@@ -6251,7 +7590,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="I91" s="70" t="s">
@@ -6274,8 +7613,24 @@
         <v>230</v>
       </c>
       <c r="P91" s="60"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R91" s="70">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="S91" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="T91" s="77">
+        <v>1</v>
+      </c>
+      <c r="U91" s="65">
+        <v>230</v>
+      </c>
+      <c r="V91" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="54" t="s">
         <v>148</v>
       </c>
@@ -6292,7 +7647,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="I92" s="72" t="s">
@@ -6314,8 +7669,24 @@
         <v>2</v>
       </c>
       <c r="P92" s="60"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R92" s="69">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="S92" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="T92" s="76">
+        <v>1</v>
+      </c>
+      <c r="U92" s="64">
+        <v>2</v>
+      </c>
+      <c r="V92" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="54" t="s">
         <v>79</v>
       </c>
@@ -6335,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="I93" s="70" t="s">
@@ -6360,8 +7731,27 @@
         <v>37</v>
       </c>
       <c r="P93" s="60"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R93" s="70">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="S93" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="T93" s="77">
+        <v>1</v>
+      </c>
+      <c r="U93" s="65">
+        <v>37</v>
+      </c>
+      <c r="V93" s="54">
+        <v>1</v>
+      </c>
+      <c r="W93" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="54" t="s">
         <v>94</v>
       </c>
@@ -6378,7 +7768,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="I94" s="72" t="s">
@@ -6400,8 +7790,27 @@
         <v>46</v>
       </c>
       <c r="P94" s="60"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R94" s="69">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="S94" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="T94" s="76">
+        <v>1</v>
+      </c>
+      <c r="U94" s="64">
+        <v>46</v>
+      </c>
+      <c r="V94" s="54">
+        <v>1</v>
+      </c>
+      <c r="W94" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="54" t="s">
         <v>40</v>
       </c>
@@ -6421,7 +7830,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="I95" s="70" t="s">
@@ -6445,8 +7854,27 @@
       <c r="O95" s="65">
         <v>313</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R95" s="70">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="S95" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="T95" s="77">
+        <v>1</v>
+      </c>
+      <c r="U95" s="65">
+        <v>313</v>
+      </c>
+      <c r="V95" s="54">
+        <v>1</v>
+      </c>
+      <c r="W95" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="54" t="s">
         <v>147</v>
       </c>
@@ -6460,7 +7888,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="I96" s="72" t="s">
@@ -6478,8 +7906,24 @@
       <c r="O96" s="64">
         <v>10</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R96" s="69">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="S96" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="T96" s="76">
+        <v>1</v>
+      </c>
+      <c r="U96" s="64">
+        <v>10</v>
+      </c>
+      <c r="V96" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D97" s="57" t="s">
         <v>146</v>
       </c>
@@ -6490,7 +7934,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="I97" s="70" t="s">
@@ -6508,8 +7952,19 @@
       <c r="O97" s="65">
         <v>23</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R97" s="70">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="S97" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="T97" s="77"/>
+      <c r="U97" s="65">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="54" t="s">
         <v>24</v>
       </c>
@@ -6529,7 +7984,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="I98" s="72" t="s">
@@ -6553,8 +8008,24 @@
       <c r="O98" s="64">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R98" s="69">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="S98" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="T98" s="76">
+        <v>1</v>
+      </c>
+      <c r="U98" s="64">
+        <v>2</v>
+      </c>
+      <c r="V98" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="54" t="s">
         <v>34</v>
       </c>
@@ -6574,7 +8045,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="I99" s="70" t="s">
@@ -6598,8 +8069,24 @@
       <c r="O99" s="65">
         <v>16</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R99" s="70">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="S99" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="T99" s="77">
+        <v>1</v>
+      </c>
+      <c r="U99" s="65">
+        <v>16</v>
+      </c>
+      <c r="V99" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="54" t="s">
         <v>50</v>
       </c>
@@ -6616,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="I100" s="72" t="s">
@@ -6635,8 +8122,24 @@
       <c r="O100" s="64">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R100" s="69">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="S100" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="T100" s="76">
+        <v>1</v>
+      </c>
+      <c r="U100" s="64">
+        <v>5</v>
+      </c>
+      <c r="V100" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="54" t="s">
         <v>26</v>
       </c>
@@ -6656,7 +8159,7 @@
         <v>1</v>
       </c>
       <c r="H101" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="I101" s="70" t="s">
@@ -6680,8 +8183,24 @@
       <c r="O101" s="65">
         <v>93</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R101" s="70">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="S101" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="T101" s="77">
+        <v>1</v>
+      </c>
+      <c r="U101" s="65">
+        <v>93</v>
+      </c>
+      <c r="V101" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="54" t="s">
         <v>123</v>
       </c>
@@ -6698,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="I102" s="72" t="s">
@@ -6717,8 +8236,24 @@
       <c r="O102" s="64">
         <v>21</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R102" s="69">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="S102" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="T102" s="76">
+        <v>1</v>
+      </c>
+      <c r="U102" s="64">
+        <v>21</v>
+      </c>
+      <c r="V102" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="54" t="s">
         <v>19</v>
       </c>
@@ -6738,7 +8273,7 @@
         <v>1</v>
       </c>
       <c r="H103" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="I103" s="70" t="s">
@@ -6762,8 +8297,24 @@
       <c r="O103" s="65">
         <v>11</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R103" s="70">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="S103" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="T103" s="77">
+        <v>1</v>
+      </c>
+      <c r="U103" s="65">
+        <v>11</v>
+      </c>
+      <c r="V103" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="54" t="s">
         <v>115</v>
       </c>
@@ -6780,7 +8331,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="I104" s="72" t="s">
@@ -6801,8 +8352,24 @@
       <c r="O104" s="64">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R104" s="69">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="S104" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="T104" s="76">
+        <v>1</v>
+      </c>
+      <c r="U104" s="64">
+        <v>7</v>
+      </c>
+      <c r="V104" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="54" t="s">
         <v>80</v>
       </c>
@@ -6816,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="H105" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="I105" s="70" t="s">
@@ -6836,8 +8403,27 @@
       <c r="O105" s="65">
         <v>572</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R105" s="70">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="S105" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="T105" s="77">
+        <v>1</v>
+      </c>
+      <c r="U105" s="65">
+        <v>572</v>
+      </c>
+      <c r="V105" s="54">
+        <v>1</v>
+      </c>
+      <c r="W105" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="54" t="s">
         <v>85</v>
       </c>
@@ -6857,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="H106" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="I106" s="72" t="s">
@@ -6879,8 +8465,24 @@
       <c r="O106" s="64">
         <v>29</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R106" s="69">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="S106" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="T106" s="76">
+        <v>1</v>
+      </c>
+      <c r="U106" s="64">
+        <v>29</v>
+      </c>
+      <c r="V106" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D107" s="57" t="s">
         <v>86</v>
       </c>
@@ -6891,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="H107" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="I107" s="70" t="s">
@@ -6907,8 +8509,19 @@
       <c r="O107" s="65">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R107" s="70">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="S107" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="T107" s="77"/>
+      <c r="U107" s="65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="54" t="s">
         <v>11</v>
       </c>
@@ -6928,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="H108" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="I108" s="72" t="s">
@@ -6952,8 +8565,27 @@
       <c r="O108" s="64">
         <v>153</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R108" s="69">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="S108" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="T108" s="76">
+        <v>1</v>
+      </c>
+      <c r="U108" s="64">
+        <v>153</v>
+      </c>
+      <c r="V108" s="54">
+        <v>1</v>
+      </c>
+      <c r="W108" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="54" t="s">
         <v>145</v>
       </c>
@@ -6964,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="I109" s="70" t="s">
@@ -6981,8 +8613,19 @@
       <c r="P109" s="62" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R109" s="70">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="S109" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="T109" s="77">
+        <v>1</v>
+      </c>
+      <c r="U109" s="65"/>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D110" s="57" t="s">
         <v>144</v>
       </c>
@@ -6993,7 +8636,7 @@
         <v>1</v>
       </c>
       <c r="H110" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="I110" s="72" t="s">
@@ -7008,8 +8651,19 @@
       <c r="O110" s="64">
         <v>10</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R110" s="69">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="S110" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="T110" s="76"/>
+      <c r="U110" s="64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="54" t="s">
         <v>28</v>
       </c>
@@ -7029,7 +8683,7 @@
         <v>1</v>
       </c>
       <c r="H111" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="I111" s="70" t="s">
@@ -7053,8 +8707,27 @@
       <c r="O111" s="65">
         <v>205</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R111" s="70">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="S111" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="T111" s="77">
+        <v>1</v>
+      </c>
+      <c r="U111" s="65">
+        <v>205</v>
+      </c>
+      <c r="V111" s="54">
+        <v>1</v>
+      </c>
+      <c r="W111" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="54" t="s">
         <v>53</v>
       </c>
@@ -7074,7 +8747,7 @@
         <v>1</v>
       </c>
       <c r="H112" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="I112" s="72" t="s">
@@ -7098,8 +8771,24 @@
       <c r="O112" s="64">
         <v>13</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R112" s="69">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="S112" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="T112" s="76">
+        <v>1</v>
+      </c>
+      <c r="U112" s="64">
+        <v>13</v>
+      </c>
+      <c r="V112" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D113" s="57" t="s">
         <v>35</v>
       </c>
@@ -7110,7 +8799,7 @@
         <v>1</v>
       </c>
       <c r="H113" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="I113" s="70" t="s">
@@ -7128,8 +8817,19 @@
       <c r="O113" s="65">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R113" s="70">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="S113" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="T113" s="77"/>
+      <c r="U113" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="54" t="s">
         <v>30</v>
       </c>
@@ -7149,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="H114" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="I114" s="72" t="s">
@@ -7173,8 +8873,24 @@
       <c r="O114" s="64">
         <v>109</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R114" s="69">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="S114" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="T114" s="76">
+        <v>1</v>
+      </c>
+      <c r="U114" s="64">
+        <v>109</v>
+      </c>
+      <c r="V114" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B115" s="57" t="s">
         <v>143</v>
       </c>
@@ -7185,7 +8901,7 @@
         <v>1</v>
       </c>
       <c r="H115" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="I115" s="70" t="s">
@@ -7203,8 +8919,19 @@
       <c r="O115" s="65">
         <v>184</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R115" s="70">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="S115" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="T115" s="77"/>
+      <c r="U115" s="65">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="54" t="s">
         <v>45</v>
       </c>
@@ -7221,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="H116" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="I116" s="72" t="s">
@@ -7240,8 +8967,24 @@
       <c r="O116" s="64">
         <v>494</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R116" s="69">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="S116" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="T116" s="76">
+        <v>1</v>
+      </c>
+      <c r="U116" s="64">
+        <v>494</v>
+      </c>
+      <c r="V116" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="54" t="s">
         <v>55</v>
       </c>
@@ -7255,7 +8998,7 @@
         <v>1</v>
       </c>
       <c r="H117" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="I117" s="70" t="s">
@@ -7275,8 +9018,24 @@
       <c r="O117" s="65">
         <v>300</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R117" s="70">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="S117" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="T117" s="77">
+        <v>1</v>
+      </c>
+      <c r="U117" s="65">
+        <v>300</v>
+      </c>
+      <c r="V117" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B118" s="57" t="s">
         <v>142</v>
       </c>
@@ -7287,7 +9046,7 @@
         <v>1</v>
       </c>
       <c r="H118" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="I118" s="72" t="s">
@@ -7302,8 +9061,19 @@
       <c r="O118" s="64">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R118" s="69">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="S118" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="T118" s="76"/>
+      <c r="U118" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="54" t="s">
         <v>111</v>
       </c>
@@ -7320,7 +9090,7 @@
         <v>1</v>
       </c>
       <c r="H119" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="I119" s="70" t="s">
@@ -7342,8 +9112,27 @@
       <c r="O119" s="65">
         <v>24</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R119" s="70">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="S119" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="T119" s="77">
+        <v>1</v>
+      </c>
+      <c r="U119" s="65">
+        <v>24</v>
+      </c>
+      <c r="V119" s="54">
+        <v>1</v>
+      </c>
+      <c r="W119" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="54" t="s">
         <v>42</v>
       </c>
@@ -7363,7 +9152,7 @@
         <v>1</v>
       </c>
       <c r="H120" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="I120" s="72" t="s">
@@ -7387,8 +9176,27 @@
       <c r="O120" s="64">
         <v>73</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R120" s="69">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="S120" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="T120" s="76">
+        <v>1</v>
+      </c>
+      <c r="U120" s="64">
+        <v>73</v>
+      </c>
+      <c r="V120" s="54">
+        <v>1</v>
+      </c>
+      <c r="W120" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="54" t="s">
         <v>12</v>
       </c>
@@ -7408,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="I121" s="70" t="s">
@@ -7430,8 +9238,24 @@
       <c r="O121" s="65">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R121" s="70">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="S121" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="T121" s="77">
+        <v>1</v>
+      </c>
+      <c r="U121" s="65">
+        <v>5</v>
+      </c>
+      <c r="V121" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B122" s="57" t="s">
         <v>141</v>
       </c>
@@ -7442,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="H122" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="I122" s="72" t="s">
@@ -7457,8 +9281,22 @@
       <c r="O122" s="64">
         <v>13</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R122" s="69">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="S122" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="T122" s="76"/>
+      <c r="U122" s="64">
+        <v>13</v>
+      </c>
+      <c r="X122" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="54" t="s">
         <v>126</v>
       </c>
@@ -7472,7 +9310,7 @@
         <v>1</v>
       </c>
       <c r="H123" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>122</v>
       </c>
       <c r="I123" s="70" t="s">
@@ -7492,8 +9330,24 @@
       <c r="O123" s="65">
         <v>15</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R123" s="70">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="S123" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="T123" s="77">
+        <v>1</v>
+      </c>
+      <c r="U123" s="65">
+        <v>15</v>
+      </c>
+      <c r="V123" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D124" s="57" t="s">
         <v>140</v>
       </c>
@@ -7504,7 +9358,7 @@
         <v>1</v>
       </c>
       <c r="H124" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>123</v>
       </c>
       <c r="I124" s="72" t="s">
@@ -7519,8 +9373,19 @@
       <c r="O124" s="64">
         <v>668</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R124" s="69">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="S124" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="T124" s="76"/>
+      <c r="U124" s="64">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="53">
         <f>COUNTA(A2:A123)</f>
         <v>94</v>
@@ -7578,8 +9443,29 @@
         <f>COUNTA(O2:O124)</f>
         <v>110</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R125" s="71"/>
+      <c r="S125" s="74">
+        <f>COUNTA(S2:S124)</f>
+        <v>123</v>
+      </c>
+      <c r="T125" s="78">
+        <f>SUM(T2:T124)</f>
+        <v>94</v>
+      </c>
+      <c r="U125" s="67">
+        <f>COUNTA(U2:U124)</f>
+        <v>110</v>
+      </c>
+      <c r="V125" s="54">
+        <f>SUM(V2:V124)</f>
+        <v>83</v>
+      </c>
+      <c r="W125" s="54">
+        <f>SUM(W2:W124)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="53" t="s">
         <v>139</v>
       </c>
